--- a/medicine/Soins infirmiers et profession infirmière/Nightingale_Pledge/Nightingale_Pledge.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Nightingale_Pledge/Nightingale_Pledge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Nightingale Pledge (ou Comité Nightingale) était composé par un groupe dirigé par Lystra Gretter, formatrice en soins infirmiers au Harper Hospital à Détroit, Michigan, États-Unis d'Amérique.
 Il a été instauré dès le printemps 1893 dans le but de valider la formation infirmière selon des critères nationaux, notamment en établissant un serment de valeurs infirmières auxquelles les futures professionnelles devaient se prêter avant de valider leur formation et de commencer à exercer.
@@ -512,7 +524,9 @@
           <t>Extrait du serment</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>I solemnly pledge myself before God and in the presence of this assembly, to pass my life in purity and to practice my profession faithfully.
 I will abstain from whatever is deleterious and mischievous, and will not take or knowingly administer any harmful drug.
